--- a/Output_testing/R1_201907/Country/HKD/MN/TRINIDAD,TOBAGO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TRINIDAD,TOBAGO_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>181</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/TRINIDAD,TOBAGO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TRINIDAD,TOBAGO_201907_HKD_MN.xlsx
@@ -655,8 +655,10 @@
       <c r="F10" s="8" t="n">
         <v>0.966509</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.287458</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-89.51738564969963</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/TRINIDAD,TOBAGO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/TRINIDAD,TOBAGO_201907_HKD_MN.xlsx
@@ -812,136 +812,453 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>0.534716</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>0.389575549993801</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>40.187593</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>32.7720958581606</v>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>237.426044</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>67.76472582238495</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>224.162617</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>68.93363113281973</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>72.125105</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>52.54785240900897</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>35.099296</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>28.62270186388005</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>40.22627061232686</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>47.180769</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>13.46605377198754</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>45.744808</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>14.06726849960741</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>8.565212000000001</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.240316683460948</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>24.680463</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>20.12637331277307</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>511.3044367782384</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0.512148</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.1574937953075885</v>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.1062372137236329</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>8.335842</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.797695325581731</v>
+      </c>
+      <c r="K21" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>9.447153</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.696350080478624</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>7.858429</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.416594047746389</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4.534512</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.303688324930413</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2.534669</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.066966673936109</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-11.62217328360748</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>10.397979</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.967729168085353</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.784803</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.471404328961814</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>5.473703</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.987950345094814</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1.261605</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.028811056067346</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-48.54489823219635</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.750228</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.64119578994544</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3.43018</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.054835841960105</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>5.315059</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.872367823619458</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.9645049999999999</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.7865325578388132</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-74.5531656673988</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4.719176</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.346919075767355</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>7.6815</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.362185517965981</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>7.951204</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>5.792971729689985</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.791847</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.6457337663640839</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-63.0064816571066</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.860869</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.5311181345226628</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1.447972</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.4452748146612298</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.44445</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.052376220626549</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.743279</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.6061276334056073</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-5.269765124065318</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>0.604665</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.1725798789765136</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.08541323335104954</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.922436</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.6720549077156506</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.715396</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.583389661792998</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>127.2007215584647</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>32.806453</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>9.363422206326943</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>29.181452</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>8.97376857483817</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>30.243833</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>22.03460879213576</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>7.312978</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.963572290199603</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-20.35817908605808</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1290,539 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>7.778624</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>64.43887421775345</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>4.523885</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>68.83074676411952</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.049387</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>65.48275106033591</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.156988</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>78.11347484855244</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>55.9794253532697</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.318608</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>10.92347631850099</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.8305360000000001</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>12.63657522118373</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.114668099989284</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>12.52136634518164</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>80.44840849429313</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.570199</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>13.00768051751084</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.5942539999999999</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>9.041553131338459</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.963373</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>20.68753960623856</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.673507759966857</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-86.60415020973184</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.780853497239159</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.411852639423462</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.244440416863244</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.273886125347294</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-7.126375576854816</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.455470742972476</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.307018039013297</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.412616316986484</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.175873267877475</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.3747394030247888</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.7703336200339689</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.824217769406708</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.8265154170855435</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-40.53723099369496</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.504161847393351</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.001920584887555</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.2337667301798088</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.4153762359887476</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>441.2930627654554</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>3.230797753551765</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.1907496130084178</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.09319608904476245</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1854,453 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E44" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F44" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>0.534716</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>0.4032571280861068</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>40.187593</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>33.52706558344372</v>
+      </c>
+      <c r="K44" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>237.426044</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>70.18274945961738</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>224.162617</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>70.35561880024437</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>72.125105</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>54.39329046673169</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>35.099296</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>29.28208213228156</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>40.22627061232686</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>47.180769</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>13.94655798602736</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>45.744808</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>14.35745315972274</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>8.565212000000001</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.459471556057157</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>24.680463</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>20.59002393178303</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>511.3044367782384</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.512148</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.1607426338054733</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.1099681787081962</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>8.335842</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.954293615624718</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>10.397979</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.073625549871702</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>4.784803</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.501756985208045</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>5.473703</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.128003934380694</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1.261605</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.052511743497564</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-48.54489823219635</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>5.750228</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.699757972043188</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3.43018</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.076595374045897</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>5.315059</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.008362248274251</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.9645049999999999</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.8046518832456421</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-74.5531656673988</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.719176</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.394980690761285</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>7.6815</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.410913528075367</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>7.951204</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>5.996416209477115</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.791847</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.6606095145099423</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-63.0064816571066</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.80001</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.532080005741939</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1.382121</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.4337921260609325</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.433564</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.081125123556489</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.731809</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.610521967253783</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-6.479039191931579</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.604665</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.1787379829400668</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.0871751681637687</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>0.922436</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.6956569322841208</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.715396</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.5968291907936188</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>127.2007215584647</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>INSECTICIDES, RODENTICIDES, FUNGICIDES, HERBICIDES, ANTI-SPROUTING PRODUCTS AND PLANT-GROWTH REGULATORS, DISINFECTANTS AND SIMILAR PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.2613089511035351</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.615072</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.1930463328178574</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1.353488</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.020735649913241</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.5005584522085269</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>6.632165237203247</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>29.359143</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>8.678514550484948</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>29.918183</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>9.390112885521637</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>28.778964</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>21.70371257253094</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>6.497765</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.420851985357897</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-26.52747918514241</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2332,553 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>5.664124</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>9.972750021924956</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4.524771</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>66.39955330282957</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>6.006073</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>78.92003852134081</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>4.5085</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>71.22025565046674</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>6.833556233999261</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>0.5370095634712644</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>6.823724843934809</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.810611554536356</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>1.1115</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>17.55823758578103</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>283.2758620689655</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2.796352</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.923500874859006</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.776858</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>11.40014028991292</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.10692</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>14.54497290326684</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.7055900000000001</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.14612402892599</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>5.417830148791247</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.2737561009969975</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.07538273482622321</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>307.8632478632478</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.706072945354385</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3296006238748219</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>5.869650713336053</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>5.261664167080003</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1.181048</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.07945597022495</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.498002776448904</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FOOD-PROCESSING MACHINES (EXCLUDING DOMESTIC)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4735078054607408</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>46.645175</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>82.1275575894778</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
